--- a/lms/moodle/funciones.xlsx
+++ b/lms/moodle/funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\campusoft\git knowledge_base\knowledge_base\lms\moodle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29F8008A-0196-4980-933E-5EC4ECE1B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FC9A0C-FEF9-468A-82C0-01E9CDB9745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{93FD859E-6B88-4963-A43D-724AAD672303}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$A$618</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
   <si>
     <t>auth_email_get_signup_settings </t>
   </si>
@@ -1882,24 +1882,19 @@
   </si>
   <si>
     <t>Funciones</t>
+  </si>
+  <si>
+    <t>Las siguientes funciones a detalle se encuentran en la documentación del api de moodle que viene con su instalación. Debe ser habilitada desde protocolos en el admin. La documentación se encuentra en Server/API Documentación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1922,18 +1917,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2246,10 +2236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF042E3-009F-4A8F-9268-DFF6E06904B5}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:A618"/>
+  <dimension ref="A1:A619"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2261,3741 +2252,3097 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A618" xr:uid="{FDF042E3-009F-4A8F-9268-DFF6E06904B5}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="core_calendar_create_calendar_events "/>
-        <filter val="core_calendar_submit_create_update_form "/>
-        <filter val="core_cohort_create_cohorts "/>
-        <filter val="core_competency_create_competency "/>
-        <filter val="core_competency_create_competency_framework "/>
-        <filter val="core_competency_create_plan "/>
-        <filter val="core_competency_create_template "/>
-        <filter val="core_competency_create_user_evidence_competency "/>
-        <filter val="core_course_create_categories "/>
-        <filter val="core_course_create_courses "/>
-        <filter val="core_create_userfeedback_action_record "/>
-        <filter val="core_customfield_create_category "/>
-        <filter val="core_grades_create_gradecategories "/>
-        <filter val="core_grades_create_gradecategory "/>
-        <filter val="core_group_create_groupings "/>
-        <filter val="core_group_create_groups "/>
-        <filter val="core_message_create_contact_request "/>
-        <filter val="core_notes_create_notes "/>
-        <filter val="core_user_create_users "/>
-        <filter val="mod_lti_create_tool_proxy "/>
-        <filter val="mod_lti_create_tool_type "/>
-        <filter val="paygw_paypal_create_transaction_complete "/>
-        <filter val="tool_dataprivacy_create_category_form "/>
-        <filter val="tool_dataprivacy_create_purpose_form "/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D718CF1D-A147-43F8-81CC-7B4B6F7A6D76}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8E49009F-FBAD-469B-B4EC-68CB11FCE09B}"/>
-    <hyperlink ref="A4" r:id="rId3" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C6AB66EB-D4A2-40B6-A79E-A70CA1A04561}"/>
-    <hyperlink ref="A5" r:id="rId4" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{538E7B50-8D2B-4613-B5F7-AA1C992FC1EE}"/>
-    <hyperlink ref="A6" r:id="rId5" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7ECA6FF5-AEEF-44C3-9607-D946F702605D}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{707F2975-3E36-4D73-BEFF-D805055557EC}"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{812486EB-65EE-4888-90CF-9A478E9FF565}"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1B753EFD-3F87-443B-A96D-0EA08C1443EC}"/>
-    <hyperlink ref="A10" r:id="rId9" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E6C10865-2C86-4447-B898-047D71C6813F}"/>
-    <hyperlink ref="A11" r:id="rId10" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C609CF2C-5722-4714-A09B-CDF7B1BCA56F}"/>
-    <hyperlink ref="A12" r:id="rId11" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5B02FB5D-F7AD-4B3E-A310-DCABDF8E8C61}"/>
-    <hyperlink ref="A13" r:id="rId12" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{29085F00-F390-46C1-B850-6FA1E99B1BD9}"/>
-    <hyperlink ref="A14" r:id="rId13" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{58490EE9-8603-4548-BBA9-29DBBDE28932}"/>
-    <hyperlink ref="A15" r:id="rId14" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3E832D4F-7847-47EA-B6BE-51F9753F9470}"/>
-    <hyperlink ref="A16" r:id="rId15" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7FAAE432-C862-466A-9FAD-D387658AA4F1}"/>
-    <hyperlink ref="A17" r:id="rId16" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{93AF7DE1-3979-4D2F-994D-38DC83902651}"/>
-    <hyperlink ref="A18" r:id="rId17" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C442646D-EF97-40FC-A8EC-1F517D54704B}"/>
-    <hyperlink ref="A19" r:id="rId18" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FEDA86CB-1226-411B-8A87-1377BBEBA4A3}"/>
-    <hyperlink ref="A20" r:id="rId19" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3298B4F6-7BCB-4BAB-A189-752A3BAEAE8B}"/>
-    <hyperlink ref="A21" r:id="rId20" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{79910256-6D21-4B51-B043-171A69B89B32}"/>
-    <hyperlink ref="A22" r:id="rId21" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5E74BAAB-DEB4-4EDE-8265-0522D16DB933}"/>
-    <hyperlink ref="A23" r:id="rId22" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F6B2379F-B1D4-4119-A03A-8F60CE107E3A}"/>
-    <hyperlink ref="A24" r:id="rId23" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D88144B9-1256-4B12-B2AB-C8E31CC578A1}"/>
-    <hyperlink ref="A25" r:id="rId24" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{208D5E4F-877A-443F-BF7E-0F2AB4EEF858}"/>
-    <hyperlink ref="A26" r:id="rId25" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EC0742F2-3E38-4F22-BBE8-0167E5B20691}"/>
-    <hyperlink ref="A27" r:id="rId26" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC0ADBB3-D4DA-40B4-BE8A-9E65FF75E857}"/>
-    <hyperlink ref="A28" r:id="rId27" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AADE8B21-05D8-4740-9AB4-9B761CFE819A}"/>
-    <hyperlink ref="A29" r:id="rId28" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3C7DFC6A-7865-4111-9785-1061BC48EF21}"/>
-    <hyperlink ref="A30" r:id="rId29" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2403253C-0F2E-4590-B6D3-6AFAF83B923D}"/>
-    <hyperlink ref="A31" r:id="rId30" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{ADFDD742-4A99-4AD3-BA16-E4085FDE5BFD}"/>
-    <hyperlink ref="A32" r:id="rId31" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9D79CB8F-1795-4A80-B781-F0171DA11A06}"/>
-    <hyperlink ref="A33" r:id="rId32" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2D278D5B-BEC2-49EE-B7C8-152A76CC4D53}"/>
-    <hyperlink ref="A34" r:id="rId33" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4060F9B5-63B6-4D59-8A2D-8B911EDDD7A4}"/>
-    <hyperlink ref="A35" r:id="rId34" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D8AA8D50-8527-450E-B40C-BCA302A21681}"/>
-    <hyperlink ref="A36" r:id="rId35" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{29031DEF-DAB7-4265-BC65-57C7AE413EED}"/>
-    <hyperlink ref="A37" r:id="rId36" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{24E18872-39CD-4E16-A9BA-BCD43E1206B2}"/>
-    <hyperlink ref="A38" r:id="rId37" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A2F15806-4339-4963-8587-E2B674D72DBE}"/>
-    <hyperlink ref="A39" r:id="rId38" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2701A570-4F3B-4F89-B39C-617A0AB70DDF}"/>
-    <hyperlink ref="A40" r:id="rId39" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C08F0FFB-742C-4726-8287-F8D9FE99B9DE}"/>
-    <hyperlink ref="A41" r:id="rId40" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9F3F4409-8564-4C6A-B2E6-F7F15DA48562}"/>
-    <hyperlink ref="A42" r:id="rId41" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9C8BF38F-FD48-4392-AB99-179123A24376}"/>
-    <hyperlink ref="A43" r:id="rId42" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1A04470E-E7CD-4CA0-9349-D314A7B50AB0}"/>
-    <hyperlink ref="A44" r:id="rId43" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DDCD24A5-89C6-41F7-A762-F6C37E00DF64}"/>
-    <hyperlink ref="A45" r:id="rId44" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EB1F1029-D146-4C59-80CA-3B6550666DB5}"/>
-    <hyperlink ref="A46" r:id="rId45" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A6192901-FA3C-4A91-9FBF-8D16773F7CA8}"/>
-    <hyperlink ref="A47" r:id="rId46" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{420ADAB4-1329-4CED-90D3-08BCC83F70AF}"/>
-    <hyperlink ref="A48" r:id="rId47" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{47AF948E-D824-455F-90BA-794FD57D0D21}"/>
-    <hyperlink ref="A49" r:id="rId48" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C652DE85-2B40-443A-9237-DA1190D26719}"/>
-    <hyperlink ref="A50" r:id="rId49" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{60F47F28-AA37-4E58-B365-F0E9DE5A4188}"/>
-    <hyperlink ref="A51" r:id="rId50" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4FF0E6B4-25C7-4EAE-87A4-74B8856B25D8}"/>
-    <hyperlink ref="A52" r:id="rId51" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A720AAAC-A385-4915-B9FC-71F3B28CB52F}"/>
-    <hyperlink ref="A53" r:id="rId52" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4D66B2C8-D747-4EF4-9663-CB2DAD92C6FF}"/>
-    <hyperlink ref="A54" r:id="rId53" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{26352538-49EF-47FA-847E-4B361161557E}"/>
-    <hyperlink ref="A55" r:id="rId54" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{93078A2C-B666-468E-9717-BCBA0480FF3D}"/>
-    <hyperlink ref="A56" r:id="rId55" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9785E2A9-067E-44FD-AAC7-7A9FAB1FC635}"/>
-    <hyperlink ref="A57" r:id="rId56" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{028D00F0-0AF0-434C-8923-A92F39F23A4D}"/>
-    <hyperlink ref="A58" r:id="rId57" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{54705FCA-3F97-4377-B2AD-582A854FCA4F}"/>
-    <hyperlink ref="A59" r:id="rId58" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4E3D628F-8068-4157-A009-434E88512166}"/>
-    <hyperlink ref="A60" r:id="rId59" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B7597641-146D-42F1-BADA-EC025AC4A6EC}"/>
-    <hyperlink ref="A61" r:id="rId60" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2DDEA888-A6CF-43DA-9039-9C77D4C5E6A1}"/>
-    <hyperlink ref="A62" r:id="rId61" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7BE48F8B-6DF9-4F63-83AD-B2CE2E69E4CC}"/>
-    <hyperlink ref="A63" r:id="rId62" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2D71C6EB-1EBC-4E27-B08E-EE3EDDCBCFEF}"/>
-    <hyperlink ref="A64" r:id="rId63" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1DAA96CB-6F8E-4DE6-B187-7F5D9D6363DF}"/>
-    <hyperlink ref="A65" r:id="rId64" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8BE2E1D3-C6D3-4DE9-9FDB-4AE02A91BA63}"/>
-    <hyperlink ref="A66" r:id="rId65" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D75DFAD8-F732-40F6-8A02-CC218AF39130}"/>
-    <hyperlink ref="A67" r:id="rId66" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C8B3883C-5308-47EC-A918-9B4658F2A63C}"/>
-    <hyperlink ref="A68" r:id="rId67" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{59F78834-709D-450B-89A9-32F3110DA1B5}"/>
-    <hyperlink ref="A69" r:id="rId68" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F8D36650-B5FF-40E9-9090-25FDC2B9A535}"/>
-    <hyperlink ref="A70" r:id="rId69" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{38F4D51E-081E-4B27-A9F7-9AF311A824CE}"/>
-    <hyperlink ref="A71" r:id="rId70" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3C5D9F9C-75B5-4CAC-83E2-EAF1586AAA36}"/>
-    <hyperlink ref="A72" r:id="rId71" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{64C8E049-41F6-4216-9E45-DF942B5944DD}"/>
-    <hyperlink ref="A73" r:id="rId72" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BB1A8BD2-E2E9-47C9-B1E8-53DD5ACA249B}"/>
-    <hyperlink ref="A74" r:id="rId73" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{44B5052F-9ADC-4C67-8B8F-AA1A16AEA74A}"/>
-    <hyperlink ref="A75" r:id="rId74" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0ECAE25B-B5FA-4424-8337-834668ED1950}"/>
-    <hyperlink ref="A76" r:id="rId75" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0B707643-8A18-470C-9FAD-C8BA7495E83F}"/>
-    <hyperlink ref="A77" r:id="rId76" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC4A9B3D-6049-4D76-ADCF-46BE5FEF3409}"/>
-    <hyperlink ref="A78" r:id="rId77" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1447EECB-015A-414F-B4E5-586A672CD31C}"/>
-    <hyperlink ref="A79" r:id="rId78" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AC0C02FE-C5E7-4B8E-B942-472000661DD2}"/>
-    <hyperlink ref="A80" r:id="rId79" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E185D9F4-F91F-4AF7-A5E0-E8D9810BA6A2}"/>
-    <hyperlink ref="A81" r:id="rId80" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{98CC7F5E-75A0-4735-BC25-2E9891BA1695}"/>
-    <hyperlink ref="A82" r:id="rId81" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B12D17D4-C852-46A2-8E7E-462D77FD9F12}"/>
-    <hyperlink ref="A83" r:id="rId82" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B862FE55-2F65-460B-941A-06A6EC8C3275}"/>
-    <hyperlink ref="A84" r:id="rId83" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{48C1471C-C29A-42B3-B29A-CF22B2EF9B5D}"/>
-    <hyperlink ref="A85" r:id="rId84" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E59F99D4-88FE-45EE-A9EA-EE4B3B7F070D}"/>
-    <hyperlink ref="A86" r:id="rId85" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DD0B6AB5-CDDE-4227-A068-8853882BD132}"/>
-    <hyperlink ref="A87" r:id="rId86" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FF2C8985-F06E-494E-8E60-7165CE5C7247}"/>
-    <hyperlink ref="A88" r:id="rId87" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C6DADC1A-6B78-4F5C-B983-B8C8E3B38D0C}"/>
-    <hyperlink ref="A89" r:id="rId88" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7DAAC32F-A2E4-41D9-955F-0E69F0582AD7}"/>
-    <hyperlink ref="A90" r:id="rId89" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D73D6E86-74C9-488C-A845-BE41BCAD1A59}"/>
-    <hyperlink ref="A91" r:id="rId90" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B758269C-07A3-4AC2-BBD9-9B6EBB30BD70}"/>
-    <hyperlink ref="A92" r:id="rId91" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B65676B9-17CC-4FA7-B8F8-614B62AC9F24}"/>
-    <hyperlink ref="A93" r:id="rId92" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3B42EA44-EC7E-47FB-9071-9B3997ECDC9B}"/>
-    <hyperlink ref="A94" r:id="rId93" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6EDCFEE0-9815-4994-BB36-6065EC7E4D6E}"/>
-    <hyperlink ref="A95" r:id="rId94" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4EABD6A9-C97B-4FC5-AD08-8BA90B34A395}"/>
-    <hyperlink ref="A96" r:id="rId95" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{46BF6EE1-B8A1-402E-9ECF-2BB8AE483537}"/>
-    <hyperlink ref="A97" r:id="rId96" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{10613B76-F9AC-46B9-A3CE-CD518AC4B6B4}"/>
-    <hyperlink ref="A98" r:id="rId97" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C7ADFB9C-AFFB-4887-84AA-9B3D8671DB87}"/>
-    <hyperlink ref="A99" r:id="rId98" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C07712A0-71AF-4CB1-B943-1F1C101A94D1}"/>
-    <hyperlink ref="A100" r:id="rId99" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AF3A0EA1-26EA-4C4A-8546-9A5535D6441E}"/>
-    <hyperlink ref="A101" r:id="rId100" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1567D461-33BB-4EE0-93EC-B8A7A7FBB0CF}"/>
-    <hyperlink ref="A102" r:id="rId101" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{743FDEFA-894B-4518-A6E3-C3DBAB289970}"/>
-    <hyperlink ref="A103" r:id="rId102" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{75E4ECD4-0FA7-4F50-9BB4-5FA8CDF428E7}"/>
-    <hyperlink ref="A104" r:id="rId103" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AA16A718-A1E5-412D-9D89-2124DCE8DFD9}"/>
-    <hyperlink ref="A105" r:id="rId104" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D038B1B4-3589-44C8-B6EB-BB4A855940D4}"/>
-    <hyperlink ref="A106" r:id="rId105" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C6785783-B654-4B57-BD78-FB3D720B3280}"/>
-    <hyperlink ref="A107" r:id="rId106" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A7D5783F-612E-4504-9C94-F4965FB63717}"/>
-    <hyperlink ref="A108" r:id="rId107" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E70B5A23-3E81-483F-B0F5-3961778736EC}"/>
-    <hyperlink ref="A109" r:id="rId108" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0F4411ED-88CE-47AF-B2AF-C0748AE63146}"/>
-    <hyperlink ref="A110" r:id="rId109" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{186C6FDB-1279-4304-A350-1738B042C7E6}"/>
-    <hyperlink ref="A111" r:id="rId110" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{62471DB8-126E-4DAD-8F5E-31ED9C2154F9}"/>
-    <hyperlink ref="A112" r:id="rId111" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{87E79995-FCAF-4ED5-ABB6-9D81BD187271}"/>
-    <hyperlink ref="A113" r:id="rId112" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B7BD15AD-CD89-4270-B958-34718FC14319}"/>
-    <hyperlink ref="A114" r:id="rId113" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{32E011B6-ED48-4BD8-A64D-08D63ED10C92}"/>
-    <hyperlink ref="A115" r:id="rId114" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EEA466C5-193A-4A09-BBBD-BB53C1003643}"/>
-    <hyperlink ref="A116" r:id="rId115" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A8676949-75ED-4AA4-BD3F-150825765E6D}"/>
-    <hyperlink ref="A117" r:id="rId116" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D9ACA891-EDE2-4343-A428-CC18BA7E2AC9}"/>
-    <hyperlink ref="A118" r:id="rId117" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AA7DB94D-CCD6-430D-8CE1-BB6B911BDAC7}"/>
-    <hyperlink ref="A119" r:id="rId118" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{06CBC869-31E6-4096-9FD6-B6016D42D54D}"/>
-    <hyperlink ref="A120" r:id="rId119" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{033FDCDC-19AA-4555-86FB-CC953FBF300A}"/>
-    <hyperlink ref="A121" r:id="rId120" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DD826020-3A3A-4CA8-8018-30D1988C4577}"/>
-    <hyperlink ref="A122" r:id="rId121" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BCC09C56-2E98-4BBB-B791-07A0FDFCDC59}"/>
-    <hyperlink ref="A123" r:id="rId122" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EF702FE5-1304-401D-B7FE-2DEAEAF6877E}"/>
-    <hyperlink ref="A124" r:id="rId123" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7607D3A-CD6E-4FFA-BCE2-137B21F29DE5}"/>
-    <hyperlink ref="A125" r:id="rId124" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B909AF21-D4EE-4EE5-98C3-9FDDBCCDC791}"/>
-    <hyperlink ref="A126" r:id="rId125" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5509683A-45D4-4EBD-A38D-99B71E371B44}"/>
-    <hyperlink ref="A127" r:id="rId126" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CE9B518E-CE0B-4C0E-8F95-86F77E191CE6}"/>
-    <hyperlink ref="A128" r:id="rId127" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{72E615CF-F0F3-4539-86CB-95F5940FCD6D}"/>
-    <hyperlink ref="A129" r:id="rId128" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6867D9AA-6E27-4663-9D22-C0AC7723A70F}"/>
-    <hyperlink ref="A130" r:id="rId129" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E8565558-3B07-4FE8-8043-33D13E3E3DD1}"/>
-    <hyperlink ref="A131" r:id="rId130" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{679CA2DA-48B7-40D3-A00F-6F5A02865D5F}"/>
-    <hyperlink ref="A132" r:id="rId131" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D7EEDE46-4CCD-4504-B219-42FA1295898C}"/>
-    <hyperlink ref="A133" r:id="rId132" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5EC69A13-52A7-4AB8-96A2-D2EACAE8C0E6}"/>
-    <hyperlink ref="A134" r:id="rId133" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{031A36CC-14FF-49A9-9005-561D35B87BD5}"/>
-    <hyperlink ref="A135" r:id="rId134" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{19A2EEA5-72AA-47BE-880B-504BED1549A9}"/>
-    <hyperlink ref="A136" r:id="rId135" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{48CEBF4C-8AB1-4D4A-A59C-CF1644175387}"/>
-    <hyperlink ref="A137" r:id="rId136" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EADB2B11-F64B-4957-9F22-0F56D8F12A81}"/>
-    <hyperlink ref="A138" r:id="rId137" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3882B330-DBFC-4E11-957F-2440EA79A350}"/>
-    <hyperlink ref="A139" r:id="rId138" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3DC1D627-F8CE-43DC-A600-57A8249ACB54}"/>
-    <hyperlink ref="A140" r:id="rId139" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8CD57611-AFDE-4BDC-B28F-99DE50F88B35}"/>
-    <hyperlink ref="A141" r:id="rId140" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{77EC0B2E-FDD3-4C87-BA1B-6DE7E42DABAA}"/>
-    <hyperlink ref="A142" r:id="rId141" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AFF5BFB1-8694-45DE-8F0F-6F74C67309EE}"/>
-    <hyperlink ref="A143" r:id="rId142" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A9E5B710-8E2C-4C85-9346-0849C9AD01BE}"/>
-    <hyperlink ref="A144" r:id="rId143" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E154FC97-132B-47C1-AB45-606CF3566F26}"/>
-    <hyperlink ref="A145" r:id="rId144" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9E88EC40-93F5-496C-840A-ACB39C430A2E}"/>
-    <hyperlink ref="A146" r:id="rId145" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{311444F2-3132-417A-B230-448ED046DCCB}"/>
-    <hyperlink ref="A147" r:id="rId146" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A83A7D21-E950-4885-928B-2B17F25CC34D}"/>
-    <hyperlink ref="A148" r:id="rId147" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DBECF4E9-9310-4EFC-BFE5-63DE645F1EAA}"/>
-    <hyperlink ref="A149" r:id="rId148" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3204DB11-F191-4251-A2E7-68CA09C0D938}"/>
-    <hyperlink ref="A150" r:id="rId149" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B5A70378-0CDE-4AF1-9AB9-B2E688F03F9D}"/>
-    <hyperlink ref="A151" r:id="rId150" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DE73BF03-425B-49C7-BDAF-254D5C5C3C6D}"/>
-    <hyperlink ref="A152" r:id="rId151" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3631DCCB-DA0C-4867-AF2B-D6F1AF9683E1}"/>
-    <hyperlink ref="A153" r:id="rId152" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BFDBC6B6-030F-4395-BF1A-14852256AC05}"/>
-    <hyperlink ref="A154" r:id="rId153" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7F978FFC-83E4-4DD2-8118-00E545A4B833}"/>
-    <hyperlink ref="A155" r:id="rId154" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9B2D359B-DF1D-4D8F-96A8-A5733CFBBDF1}"/>
-    <hyperlink ref="A156" r:id="rId155" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BF6A5078-3C5D-40F2-9A74-51F1A6AD072F}"/>
-    <hyperlink ref="A157" r:id="rId156" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{300A969E-F25D-4320-9FAB-386197DC6BF3}"/>
-    <hyperlink ref="A158" r:id="rId157" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC99CAD8-526C-4BBC-A58D-7EF5148E82FE}"/>
-    <hyperlink ref="A159" r:id="rId158" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{22D9C914-E635-4C5F-991F-EFD18B7FF6AF}"/>
-    <hyperlink ref="A160" r:id="rId159" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1DAF8154-7AB1-40F7-B1EF-0791B63FF4B0}"/>
-    <hyperlink ref="A161" r:id="rId160" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1F47694B-E439-4FF6-BF5D-480A6F3C1FA3}"/>
-    <hyperlink ref="A162" r:id="rId161" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E56C4336-42E9-4B71-8A06-541CDE992184}"/>
-    <hyperlink ref="A163" r:id="rId162" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D92599A6-082C-43F3-80CA-3AD155C13FE9}"/>
-    <hyperlink ref="A164" r:id="rId163" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1BE85079-4105-42F5-A513-25C2CAE658EE}"/>
-    <hyperlink ref="A165" r:id="rId164" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A2CDEB32-DCA6-45F5-9F76-AFFE9225078A}"/>
-    <hyperlink ref="A166" r:id="rId165" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{73416D46-16F1-4E7C-94D6-C91DA1E1C7B9}"/>
-    <hyperlink ref="A167" r:id="rId166" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5458D0D6-2FD8-47CE-9068-E1C404FD385F}"/>
-    <hyperlink ref="A168" r:id="rId167" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AB627C48-F050-4E76-AE36-B8A8434F0A89}"/>
-    <hyperlink ref="A169" r:id="rId168" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8631B001-19DA-4703-B46E-89DA7B1A4054}"/>
-    <hyperlink ref="A170" r:id="rId169" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5BA68529-71AB-406F-9A95-78A0FAFFD4C4}"/>
-    <hyperlink ref="A171" r:id="rId170" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1DB9D40C-6F91-4E7A-B506-67246C455AD7}"/>
-    <hyperlink ref="A172" r:id="rId171" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{488084AF-5C40-42A9-B27A-9B2EC8FFB19A}"/>
-    <hyperlink ref="A173" r:id="rId172" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E22A039B-9ECD-47BF-AC9B-06F227995BF0}"/>
-    <hyperlink ref="A174" r:id="rId173" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D97CA0DC-AA69-41AD-822B-6916417F867F}"/>
-    <hyperlink ref="A175" r:id="rId174" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{89B82869-DF72-4036-881C-41FB40282BC8}"/>
-    <hyperlink ref="A176" r:id="rId175" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FF4CEDAB-AF6F-4918-96B7-B407529D9C59}"/>
-    <hyperlink ref="A177" r:id="rId176" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{263A4DEB-B0AF-44B3-B39A-B2908C59367B}"/>
-    <hyperlink ref="A178" r:id="rId177" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E25BF198-C3FF-4C3D-A447-FAAEAFD92E79}"/>
-    <hyperlink ref="A179" r:id="rId178" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B7645976-506B-4E19-84FF-BCE541C70590}"/>
-    <hyperlink ref="A180" r:id="rId179" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F8A5F7C5-5A9A-4F37-A4DB-EC83AC891F4A}"/>
-    <hyperlink ref="A181" r:id="rId180" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{397E4513-3D36-4EA0-9908-F4A17319A98B}"/>
-    <hyperlink ref="A182" r:id="rId181" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DBE7CF51-CEF4-426A-BBC3-B9369EE5FDB7}"/>
-    <hyperlink ref="A183" r:id="rId182" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{33ABFB43-3EE5-48C0-98A0-4100D6CF362C}"/>
-    <hyperlink ref="A184" r:id="rId183" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C3FA5252-14AF-4AD0-8364-2EEB928189B2}"/>
-    <hyperlink ref="A185" r:id="rId184" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9B7D17A9-1043-445F-A269-9EC5F092C676}"/>
-    <hyperlink ref="A186" r:id="rId185" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{65F99D6C-0AD5-493B-AA23-4EF2215AA52D}"/>
-    <hyperlink ref="A187" r:id="rId186" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{585725AA-2FE6-4E88-9374-25EB0C34D4C5}"/>
-    <hyperlink ref="A188" r:id="rId187" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6D964F13-A501-4549-AD05-A61BBDFF5DC1}"/>
-    <hyperlink ref="A189" r:id="rId188" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9D3BABDB-D54C-4657-8272-AD6C9FBF8CD3}"/>
-    <hyperlink ref="A190" r:id="rId189" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F2AC6F82-D8DF-49CA-BA8E-B4BDDEDAD945}"/>
-    <hyperlink ref="A191" r:id="rId190" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7F18659D-1DBE-45CF-BFF1-496CFAEC30FB}"/>
-    <hyperlink ref="A192" r:id="rId191" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{94A4E16C-A6EE-4F1E-B15F-56BC33E01AB2}"/>
-    <hyperlink ref="A193" r:id="rId192" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{52CB8062-779D-4535-AE7F-00784DE2D2CC}"/>
-    <hyperlink ref="A194" r:id="rId193" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3645B1C3-EBF7-464A-97D0-E62B1C7B3AC4}"/>
-    <hyperlink ref="A195" r:id="rId194" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F2A4405D-8AEA-46A8-811F-0B58DFF601C6}"/>
-    <hyperlink ref="A196" r:id="rId195" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9835E2A5-E6A8-4922-B248-5687B969AC0B}"/>
-    <hyperlink ref="A197" r:id="rId196" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7EA713B2-D675-40CA-A1F0-38E525443F04}"/>
-    <hyperlink ref="A198" r:id="rId197" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{86731777-D923-4C89-9CB0-7277D10D92A4}"/>
-    <hyperlink ref="A199" r:id="rId198" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8DC23E66-8B1C-4C70-B3EB-48A7345C10A2}"/>
-    <hyperlink ref="A200" r:id="rId199" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1B7A8898-E73C-407E-87D8-980EBA45790A}"/>
-    <hyperlink ref="A201" r:id="rId200" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0DCA6405-68D8-4C51-A962-37531A1A80A3}"/>
-    <hyperlink ref="A202" r:id="rId201" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7B444437-9F48-4C8E-B1B7-2E2820B7A8B6}"/>
-    <hyperlink ref="A203" r:id="rId202" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{03DDF231-3809-42D4-B4A1-F0C080FCC31F}"/>
-    <hyperlink ref="A204" r:id="rId203" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{18D7B1B5-0342-4341-87CB-3B10FA34C42D}"/>
-    <hyperlink ref="A205" r:id="rId204" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DBB864E4-6C77-49E2-AB6F-F7E91A7753E3}"/>
-    <hyperlink ref="A206" r:id="rId205" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FA3BAA59-10C7-49D5-BD02-7D5B90FECDE7}"/>
-    <hyperlink ref="A207" r:id="rId206" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D21D8F92-429B-4273-81BF-A4F9088C52D2}"/>
-    <hyperlink ref="A208" r:id="rId207" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{60336BDA-C916-44FA-8499-7FF6A1679A4D}"/>
-    <hyperlink ref="A209" r:id="rId208" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E00CA8F1-7101-49BD-8AA7-C762F9A5F749}"/>
-    <hyperlink ref="A210" r:id="rId209" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FAFDEF1A-469E-4DA1-AA45-8F7C3E735984}"/>
-    <hyperlink ref="A211" r:id="rId210" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8B30099A-4B52-47C8-8FB9-C3D5E9183054}"/>
-    <hyperlink ref="A212" r:id="rId211" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4F4D83BF-4FB3-4CE2-B243-B322306F8930}"/>
-    <hyperlink ref="A213" r:id="rId212" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{16447438-07CC-4980-AC46-C29465AA7981}"/>
-    <hyperlink ref="A214" r:id="rId213" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1D8AC6C1-1909-4B22-B07F-DDFB4015E57A}"/>
-    <hyperlink ref="A215" r:id="rId214" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7C309FB-F8EF-40D9-B8B0-31162EC7FAC5}"/>
-    <hyperlink ref="A216" r:id="rId215" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5EB49E16-BD69-48FE-BD25-EE624721219F}"/>
-    <hyperlink ref="A217" r:id="rId216" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1116B114-C9ED-4E0B-8D45-6F7F3AF9924C}"/>
-    <hyperlink ref="A218" r:id="rId217" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4EA2D2C2-092E-4FF3-B6F2-D45A96B9D969}"/>
-    <hyperlink ref="A219" r:id="rId218" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4C727863-F301-42A7-8A3A-1DACB18C5A2D}"/>
-    <hyperlink ref="A220" r:id="rId219" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1AA8D456-D2FF-45EE-9733-C668B4DDC150}"/>
-    <hyperlink ref="A221" r:id="rId220" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{998DD7B5-1242-4355-A43B-BD2C930AD9A9}"/>
-    <hyperlink ref="A222" r:id="rId221" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{26684552-C6D9-4053-AEE4-D4096522AA34}"/>
-    <hyperlink ref="A223" r:id="rId222" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3826971F-51CA-4FBA-81AC-713B926753B9}"/>
-    <hyperlink ref="A224" r:id="rId223" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D14BE71F-5071-479C-80C3-F94F583E0CAF}"/>
-    <hyperlink ref="A225" r:id="rId224" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C149DABC-2879-47A4-8AB9-4A65E981661D}"/>
-    <hyperlink ref="A226" r:id="rId225" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{62AF7D74-AADC-4FF8-9BFC-E39B9336B242}"/>
-    <hyperlink ref="A227" r:id="rId226" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B228E543-89D6-4D66-92D2-B885FAD1CFB6}"/>
-    <hyperlink ref="A228" r:id="rId227" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{20D3FEA4-5E6D-4EFE-8EDA-D617D08EBE90}"/>
-    <hyperlink ref="A229" r:id="rId228" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{96A403BD-9FFB-4D6E-B14C-DF9DA83755AF}"/>
-    <hyperlink ref="A230" r:id="rId229" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A4ADA097-42EF-45EB-BC6B-7BAD3DBE1413}"/>
-    <hyperlink ref="A231" r:id="rId230" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7FBEC1E0-BDAB-4F09-9BD6-880FD4E46198}"/>
-    <hyperlink ref="A232" r:id="rId231" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C785E538-C5C5-4F23-8779-791913C84697}"/>
-    <hyperlink ref="A233" r:id="rId232" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0FCA1532-147C-4180-84DF-FB04A1186E6A}"/>
-    <hyperlink ref="A234" r:id="rId233" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1A7B007E-9EE0-4918-AFE1-9067C8AEF074}"/>
-    <hyperlink ref="A235" r:id="rId234" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{053ED074-6186-4C5A-9DEC-6FBAC5328A41}"/>
-    <hyperlink ref="A236" r:id="rId235" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C12ECDB6-346D-42F8-81A4-46431898408A}"/>
-    <hyperlink ref="A237" r:id="rId236" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9DA3E587-CEF6-4CC1-BA89-21FCB01B8534}"/>
-    <hyperlink ref="A238" r:id="rId237" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5D39A7EF-A3D7-4317-82D3-83AA11A6A0E9}"/>
-    <hyperlink ref="A239" r:id="rId238" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{207E3929-D1E7-4FB1-BB10-AF1A246B6723}"/>
-    <hyperlink ref="A240" r:id="rId239" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D28DBADC-93F8-4B06-BC67-F340DC142648}"/>
-    <hyperlink ref="A241" r:id="rId240" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7BB0801-6586-4877-BBD7-802D0C735ABC}"/>
-    <hyperlink ref="A242" r:id="rId241" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C8356137-05B1-4C52-BFEC-A791AB568231}"/>
-    <hyperlink ref="A243" r:id="rId242" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D7FB5375-702B-4554-93D0-367B836429BC}"/>
-    <hyperlink ref="A244" r:id="rId243" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{354DEBF9-7B30-49CC-B8ED-A9E109E233A7}"/>
-    <hyperlink ref="A245" r:id="rId244" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7DD92649-AF1C-4778-B2A6-D5A562AAE2F0}"/>
-    <hyperlink ref="A246" r:id="rId245" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0DA52FBA-B49C-4326-851A-48251888F117}"/>
-    <hyperlink ref="A247" r:id="rId246" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6574A9EC-8B4B-44A7-A9E6-4C36D3474A6C}"/>
-    <hyperlink ref="A248" r:id="rId247" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DBD4D174-8D9B-4DA2-B466-F90722709002}"/>
-    <hyperlink ref="A249" r:id="rId248" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AC129F00-7EF5-44E8-8C07-2D55996FD1DE}"/>
-    <hyperlink ref="A250" r:id="rId249" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F3F254B7-BE3C-4627-A33D-B72804DE446F}"/>
-    <hyperlink ref="A251" r:id="rId250" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{66F09B18-45DA-42AA-A1F5-2533723CF268}"/>
-    <hyperlink ref="A252" r:id="rId251" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6E1A9D68-3A0B-4918-A5F9-CBE46268F02F}"/>
-    <hyperlink ref="A253" r:id="rId252" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{794FA2DD-915D-4D4B-B5B6-B061EA2A1C6C}"/>
-    <hyperlink ref="A254" r:id="rId253" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FD60F2C0-16B5-4A6C-A38D-6E5DA2C8DE57}"/>
-    <hyperlink ref="A255" r:id="rId254" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{59ADA6D6-EB91-4CEC-9731-F544E487F64D}"/>
-    <hyperlink ref="A256" r:id="rId255" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6F494A71-7330-4B18-BD26-BA26F05B59C3}"/>
-    <hyperlink ref="A257" r:id="rId256" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{49AD322A-2CB3-4844-A73D-B559D18289C2}"/>
-    <hyperlink ref="A258" r:id="rId257" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7BF2D2A5-27ED-4AD4-B6B4-22501838F9DE}"/>
-    <hyperlink ref="A259" r:id="rId258" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0619FA60-D8B0-4FEA-AC88-A1D83BDA07D9}"/>
-    <hyperlink ref="A260" r:id="rId259" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4AF29D22-CF68-4B53-8B58-1FE3D9BC6772}"/>
-    <hyperlink ref="A261" r:id="rId260" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EBE0AE59-1DDA-4481-BE23-E4BE131D0030}"/>
-    <hyperlink ref="A262" r:id="rId261" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BCD3F7BF-3922-4692-B0B1-8EA274473107}"/>
-    <hyperlink ref="A263" r:id="rId262" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C8C05FA2-FEE5-4280-90F2-0078DA4D4035}"/>
-    <hyperlink ref="A264" r:id="rId263" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6207E549-ED43-4C2A-8852-281DE24D908E}"/>
-    <hyperlink ref="A265" r:id="rId264" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{30674ACC-EB13-4C15-BCA0-8730E59BED6F}"/>
-    <hyperlink ref="A266" r:id="rId265" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6D140699-D895-43A2-97C5-73266F0A35D4}"/>
-    <hyperlink ref="A267" r:id="rId266" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2E51A284-5BED-4886-9E9C-F9D344027D9B}"/>
-    <hyperlink ref="A268" r:id="rId267" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D95D1EE8-10D6-4D99-B6BC-8036638DCC18}"/>
-    <hyperlink ref="A269" r:id="rId268" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F186B078-1578-4A74-AA24-B64695CC23BD}"/>
-    <hyperlink ref="A270" r:id="rId269" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{64037FD8-9ABA-48C3-A37F-B67CBC143866}"/>
-    <hyperlink ref="A271" r:id="rId270" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{709FAC95-EF2A-4675-8655-38F998F6003A}"/>
-    <hyperlink ref="A272" r:id="rId271" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3667D473-82C4-4E9A-869A-B2E485D16F0B}"/>
-    <hyperlink ref="A273" r:id="rId272" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F3296E50-8228-48A4-A5C7-D1718D57E7BE}"/>
-    <hyperlink ref="A274" r:id="rId273" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9C5DFEF9-FFE3-4088-B02F-8696E8E09D80}"/>
-    <hyperlink ref="A275" r:id="rId274" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A0574F15-D4BB-4418-B0DD-31A1C9279DC8}"/>
-    <hyperlink ref="A276" r:id="rId275" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C1B7554D-9FFC-49DC-AA99-CA1433523BF8}"/>
-    <hyperlink ref="A277" r:id="rId276" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1A916DDC-BDD5-4318-887A-1665331F6B9D}"/>
-    <hyperlink ref="A278" r:id="rId277" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8AA58AC2-C45B-4FB3-BFBA-1369E0E2F8E7}"/>
-    <hyperlink ref="A279" r:id="rId278" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{053544E4-4889-406C-B45F-7203BA537302}"/>
-    <hyperlink ref="A280" r:id="rId279" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{93749911-7AB1-422F-85DC-FCC87DAA630E}"/>
-    <hyperlink ref="A281" r:id="rId280" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{11275BEF-CAA1-49EA-B9F3-D3C01A4887B2}"/>
-    <hyperlink ref="A282" r:id="rId281" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{417694E2-AF11-4B50-93B3-625F3620FA19}"/>
-    <hyperlink ref="A283" r:id="rId282" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E510692E-DB7E-47AE-B712-68978F7ADB23}"/>
-    <hyperlink ref="A284" r:id="rId283" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D460DDFB-2DCF-480A-9573-34E959B4EE2D}"/>
-    <hyperlink ref="A285" r:id="rId284" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{867CE4D9-84DC-45C6-B128-38C100975332}"/>
-    <hyperlink ref="A286" r:id="rId285" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{38EFACEA-FCD5-4E40-8B8A-C6A80A55195B}"/>
-    <hyperlink ref="A287" r:id="rId286" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5D103512-5D78-467D-95F6-336416F335B8}"/>
-    <hyperlink ref="A288" r:id="rId287" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{68572AE3-C483-478C-BBCE-50693BD06A05}"/>
-    <hyperlink ref="A289" r:id="rId288" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6E0703A4-DC05-4481-A14C-5E9A59DBA043}"/>
-    <hyperlink ref="A290" r:id="rId289" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D37C626D-30CC-419A-886F-30321CE20948}"/>
-    <hyperlink ref="A291" r:id="rId290" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E2DC0351-193B-4326-8E82-07725A914F36}"/>
-    <hyperlink ref="A292" r:id="rId291" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C082EC64-6EA8-4191-AC5C-DD6D136B63BB}"/>
-    <hyperlink ref="A293" r:id="rId292" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{215E9EAA-FCA3-4A67-9D90-A47A2C150218}"/>
-    <hyperlink ref="A294" r:id="rId293" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F276E029-0867-4770-9577-AF9B5974A529}"/>
-    <hyperlink ref="A295" r:id="rId294" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3255CEBF-884A-4CEF-85F3-D097538B036F}"/>
-    <hyperlink ref="A296" r:id="rId295" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{506F1019-F63C-4A57-8FCC-7329C640E697}"/>
-    <hyperlink ref="A297" r:id="rId296" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6C49E537-E808-4B53-8335-87D8CE2A48E3}"/>
-    <hyperlink ref="A298" r:id="rId297" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BA3DA994-B05B-4D2E-A01A-CF13D1ACC7DF}"/>
-    <hyperlink ref="A299" r:id="rId298" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{ABCF36E1-55D1-494E-AEB5-61937FEAEEB4}"/>
-    <hyperlink ref="A300" r:id="rId299" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E95A8543-BC08-406C-A1A6-0D29D6597923}"/>
-    <hyperlink ref="A301" r:id="rId300" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DD50A393-5FC5-4905-AEF3-7CEF7C0EC4C8}"/>
-    <hyperlink ref="A302" r:id="rId301" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D4AA620F-B94E-4A11-A80F-D7F0804197B3}"/>
-    <hyperlink ref="A303" r:id="rId302" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{636B1B0D-3A2C-4283-92B2-E79BE4BE7489}"/>
-    <hyperlink ref="A304" r:id="rId303" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CC575327-56A4-46D8-ADA6-FE8A7464230C}"/>
-    <hyperlink ref="A305" r:id="rId304" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E8A0A666-9502-4A0E-894A-F223080EE837}"/>
-    <hyperlink ref="A306" r:id="rId305" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7E477615-CE4E-4317-859F-8B8AC79B6DEE}"/>
-    <hyperlink ref="A307" r:id="rId306" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{791F0D40-04FA-4ED4-B426-2B5B504CF670}"/>
-    <hyperlink ref="A308" r:id="rId307" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{326885D9-AA96-4E6C-9CE8-E4D86F311AAD}"/>
-    <hyperlink ref="A309" r:id="rId308" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B3C5507F-30FA-4901-94D9-708C030F045A}"/>
-    <hyperlink ref="A310" r:id="rId309" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{743CFE7E-925F-4D80-BD67-C3058A11CACC}"/>
-    <hyperlink ref="A311" r:id="rId310" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5A24F3E1-AF5E-45DF-8541-706F84C0B854}"/>
-    <hyperlink ref="A312" r:id="rId311" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4A6D5024-DE9D-4283-B1C4-B04F17F5E029}"/>
-    <hyperlink ref="A313" r:id="rId312" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C850F1FE-1937-46B6-BA6E-E47882BA4DE5}"/>
-    <hyperlink ref="A314" r:id="rId313" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{50916AEC-476E-4954-BD57-27309813E693}"/>
-    <hyperlink ref="A315" r:id="rId314" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4C5557F7-E4EA-47F5-B1ED-4662D8B2B572}"/>
-    <hyperlink ref="A316" r:id="rId315" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{776370C7-E10A-4935-A518-125BD382DE33}"/>
-    <hyperlink ref="A317" r:id="rId316" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8AAF23C3-C560-40BA-9659-2F846C39C841}"/>
-    <hyperlink ref="A318" r:id="rId317" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B5BBAD27-EBA8-4C9D-91EF-BBCEE5D91C8E}"/>
-    <hyperlink ref="A319" r:id="rId318" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{48542441-5CC1-4D0A-965B-DBE8672116D3}"/>
-    <hyperlink ref="A320" r:id="rId319" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4487FB5B-FEB4-474C-B33F-DE988E00CEB1}"/>
-    <hyperlink ref="A321" r:id="rId320" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3FAFD7FA-E611-4A6F-8B3A-1061DB818648}"/>
-    <hyperlink ref="A322" r:id="rId321" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7B1E5CF3-1BA3-4C88-BE0E-1DA98B1F1A55}"/>
-    <hyperlink ref="A323" r:id="rId322" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BCA54554-8BCB-492D-8B48-1A0387D28E58}"/>
-    <hyperlink ref="A324" r:id="rId323" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E105D45D-4F43-490F-8D56-2CAEA54D296F}"/>
-    <hyperlink ref="A325" r:id="rId324" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F232DFAF-26B1-4734-BA00-B76CD8BD856F}"/>
-    <hyperlink ref="A326" r:id="rId325" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B2DCB509-F79D-4912-9ADD-3E92D5BD5E97}"/>
-    <hyperlink ref="A327" r:id="rId326" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BA68B1B9-787B-42F0-A03C-AC9A57DDB7CB}"/>
-    <hyperlink ref="A328" r:id="rId327" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5716EE27-D729-4F3B-B219-27BA3184003E}"/>
-    <hyperlink ref="A329" r:id="rId328" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E4C80D93-575F-4D14-B76F-188E8011C2F8}"/>
-    <hyperlink ref="A330" r:id="rId329" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E1AD5ACD-29AD-43D6-A5BA-03CB9F751AD1}"/>
-    <hyperlink ref="A331" r:id="rId330" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E0EA40A4-D784-4EAA-AD76-D48B6A85680F}"/>
-    <hyperlink ref="A332" r:id="rId331" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{97B32729-5437-4C94-9E01-5480C8448ED9}"/>
-    <hyperlink ref="A333" r:id="rId332" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D258515E-AF50-4113-A3F3-0F15DB039E15}"/>
-    <hyperlink ref="A334" r:id="rId333" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0022F16E-129E-448E-8A09-3C29AB387B34}"/>
-    <hyperlink ref="A335" r:id="rId334" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{06181800-612E-4118-8817-3D29EBD6E5CC}"/>
-    <hyperlink ref="A336" r:id="rId335" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC70CA60-C769-44EE-A4FE-2F816741CBB2}"/>
-    <hyperlink ref="A337" r:id="rId336" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{79975A83-E79E-40FF-858F-E78B56985F03}"/>
-    <hyperlink ref="A338" r:id="rId337" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{606A0CF1-E7ED-470A-BE49-A1F7B4F68843}"/>
-    <hyperlink ref="A339" r:id="rId338" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2304A64D-5F04-4B18-9185-684A3567E0AB}"/>
-    <hyperlink ref="A340" r:id="rId339" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B256590E-A0F5-4D3D-9234-A0DAF5F8011C}"/>
-    <hyperlink ref="A341" r:id="rId340" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CFAC5CD5-94F4-4083-8025-5E41FB97160B}"/>
-    <hyperlink ref="A342" r:id="rId341" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9573C8F3-ED1B-4B1B-B3AD-B602CE4AB490}"/>
-    <hyperlink ref="A343" r:id="rId342" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6B54D040-1426-4CB7-B2BA-8C1902CC8355}"/>
-    <hyperlink ref="A344" r:id="rId343" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DEE11058-17E5-435F-9097-DCAE387CADA4}"/>
-    <hyperlink ref="A345" r:id="rId344" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6F31EF18-4B90-4BE6-898B-9AF73AA5592F}"/>
-    <hyperlink ref="A346" r:id="rId345" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{45A235CD-D364-40C7-BA10-609041C79AFF}"/>
-    <hyperlink ref="A347" r:id="rId346" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DF2EE49C-DEFC-4BA2-ABFA-E84800134561}"/>
-    <hyperlink ref="A348" r:id="rId347" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A74EEB9F-9DE8-4F52-81A8-AFC08ED050F9}"/>
-    <hyperlink ref="A349" r:id="rId348" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E126BB44-67A4-4423-8604-DB649E693907}"/>
-    <hyperlink ref="A350" r:id="rId349" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AC4BB7C0-FEFB-48C6-A732-273D197B4AB1}"/>
-    <hyperlink ref="A351" r:id="rId350" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7D0F7F6-F628-4379-9449-CF448FE2D93E}"/>
-    <hyperlink ref="A352" r:id="rId351" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FD18C093-61C2-46B2-A5EA-F1689A2BCAF6}"/>
-    <hyperlink ref="A353" r:id="rId352" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{59EF36A0-07B0-466E-A669-EA711F233A2E}"/>
-    <hyperlink ref="A354" r:id="rId353" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A0479659-C85E-401B-95B0-47FF79558A60}"/>
-    <hyperlink ref="A355" r:id="rId354" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2D25DD36-02AF-485D-B0A0-A4B353BFADFD}"/>
-    <hyperlink ref="A356" r:id="rId355" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D6FB33C2-7429-4ECC-9F2F-5D190FE52D6A}"/>
-    <hyperlink ref="A357" r:id="rId356" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B363011B-3CD9-4B6F-B603-5456A67C60D2}"/>
-    <hyperlink ref="A358" r:id="rId357" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1B4931AF-49C5-4995-AE03-07D8D2CD72A2}"/>
-    <hyperlink ref="A359" r:id="rId358" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6AA91DE3-2043-4892-9D2E-538A63E09246}"/>
-    <hyperlink ref="A360" r:id="rId359" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0615C75F-0842-489F-87B8-D48DA97A9A0A}"/>
-    <hyperlink ref="A361" r:id="rId360" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{471C024B-BBBF-4DD2-BCE0-09358C61B5B8}"/>
-    <hyperlink ref="A362" r:id="rId361" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A9842874-94F4-4BCD-8196-160C476CBE13}"/>
-    <hyperlink ref="A363" r:id="rId362" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{302389D4-09D3-4338-A360-116D2624B70F}"/>
-    <hyperlink ref="A364" r:id="rId363" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{65410807-F870-4397-9159-B4524084D420}"/>
-    <hyperlink ref="A365" r:id="rId364" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BF825E92-5C19-4B97-86BF-E0514B79B2E9}"/>
-    <hyperlink ref="A366" r:id="rId365" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{601A31D4-94B6-4D4E-A7EF-9787734D6B3C}"/>
-    <hyperlink ref="A367" r:id="rId366" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7151ABDA-33D0-474F-AA16-509E9AD29B30}"/>
-    <hyperlink ref="A368" r:id="rId367" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C567E5D3-45D4-446D-B401-8B71B9B06395}"/>
-    <hyperlink ref="A369" r:id="rId368" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1B27D160-E1F1-4665-9172-493BE929C1AE}"/>
-    <hyperlink ref="A370" r:id="rId369" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A757827E-FFDA-406F-A558-199E592EAEF8}"/>
-    <hyperlink ref="A371" r:id="rId370" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2C9F8E61-CD20-4618-A59A-1F73F4C9957E}"/>
-    <hyperlink ref="A372" r:id="rId371" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{00BF9247-FCE8-4B11-B7EB-DA502E0AAF09}"/>
-    <hyperlink ref="A373" r:id="rId372" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{22F51BBD-BC21-4B9E-B3B4-3E2E94F7DD69}"/>
-    <hyperlink ref="A374" r:id="rId373" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{62C7BFBD-5DB6-4253-89EF-62230D866192}"/>
-    <hyperlink ref="A375" r:id="rId374" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{94548DC7-71F3-45EF-87B6-75073C4DE92C}"/>
-    <hyperlink ref="A376" r:id="rId375" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{80B07910-0456-4109-BDC2-A05DFBC1CC66}"/>
-    <hyperlink ref="A377" r:id="rId376" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{03F373F9-4642-4B0E-8C9F-34C67C175876}"/>
-    <hyperlink ref="A378" r:id="rId377" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{23367A99-A0EE-4B16-8C00-CA042F2CDE9A}"/>
-    <hyperlink ref="A379" r:id="rId378" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9711AA58-EA24-442F-BA85-D664EA516C96}"/>
-    <hyperlink ref="A380" r:id="rId379" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{61A8E36B-E53A-4762-9D5D-CE45E7361BB7}"/>
-    <hyperlink ref="A381" r:id="rId380" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CEF4EDBA-810C-499C-8D3A-4769DF3CF32B}"/>
-    <hyperlink ref="A382" r:id="rId381" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3598B842-1BCC-4B9E-BA4A-3A199B761065}"/>
-    <hyperlink ref="A383" r:id="rId382" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{39C6043C-A3D2-4E9E-907E-BD41A0D4A10C}"/>
-    <hyperlink ref="A384" r:id="rId383" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E1D26E22-6481-4923-BC35-9F665FBF4D35}"/>
-    <hyperlink ref="A385" r:id="rId384" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BFB9A750-57F0-4AC0-AEFF-BC9B3D724B2D}"/>
-    <hyperlink ref="A386" r:id="rId385" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CBD51E2B-4EAD-476B-B57D-80AC4D0BBC52}"/>
-    <hyperlink ref="A387" r:id="rId386" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC9C756F-F11A-424E-ABB7-9A9BD881ECBC}"/>
-    <hyperlink ref="A388" r:id="rId387" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{998328E4-09BA-47CA-A70A-00D64951BDF9}"/>
-    <hyperlink ref="A389" r:id="rId388" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0F68AFBF-A267-459B-B282-C8A3B0D9C2D3}"/>
-    <hyperlink ref="A390" r:id="rId389" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8B56C5C4-FA13-40CD-B9C5-C50C422F1325}"/>
-    <hyperlink ref="A391" r:id="rId390" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8776C940-4034-445A-9331-22701CAA6AFD}"/>
-    <hyperlink ref="A392" r:id="rId391" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{80E9F244-5D19-42DD-8C41-A277A9C19766}"/>
-    <hyperlink ref="A393" r:id="rId392" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2AEC7464-E9A6-492D-A63B-FFD9CA5C5CAD}"/>
-    <hyperlink ref="A394" r:id="rId393" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8659CD07-D518-4BE5-AAC8-432779A72B6C}"/>
-    <hyperlink ref="A395" r:id="rId394" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6846039E-2390-4AAD-B036-DBC1225ADD9E}"/>
-    <hyperlink ref="A396" r:id="rId395" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3F225715-6B48-49AA-9A7A-3A715F8353AF}"/>
-    <hyperlink ref="A397" r:id="rId396" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FB2D4BA9-221E-4246-BFEC-54CDDE49F2F7}"/>
-    <hyperlink ref="A398" r:id="rId397" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8591A895-F469-460F-B430-F3908DC7C6AF}"/>
-    <hyperlink ref="A399" r:id="rId398" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9AFABD84-6770-49F1-9D24-0A678DF76282}"/>
-    <hyperlink ref="A400" r:id="rId399" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2F0801D9-C46D-4F5B-9FB9-33CD4862AF75}"/>
-    <hyperlink ref="A401" r:id="rId400" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2381413C-21EB-48DF-9980-D5B3A9635C61}"/>
-    <hyperlink ref="A402" r:id="rId401" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FE47A75A-E72E-4ACD-B32B-F2577283D267}"/>
-    <hyperlink ref="A403" r:id="rId402" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1AE2C1F0-08F0-41D3-91AF-3FF905627F29}"/>
-    <hyperlink ref="A404" r:id="rId403" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B2E25DE5-80CA-404F-9550-D90054F9023E}"/>
-    <hyperlink ref="A405" r:id="rId404" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C2673520-7FFD-4299-80F7-0E58909CE9CE}"/>
-    <hyperlink ref="A406" r:id="rId405" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BBA67363-012B-4DEC-AFD7-82E333586818}"/>
-    <hyperlink ref="A407" r:id="rId406" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F6D661F7-0027-4F11-9D0A-BF55BAE33D02}"/>
-    <hyperlink ref="A408" r:id="rId407" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C3925370-C1AD-4ACD-9FF7-749CC28D0119}"/>
-    <hyperlink ref="A409" r:id="rId408" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{219FE9F6-D0C3-4E69-B19F-48995C82FC69}"/>
-    <hyperlink ref="A410" r:id="rId409" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D5D9C0D8-8C72-4DB7-AAD4-BA504C32B155}"/>
-    <hyperlink ref="A411" r:id="rId410" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6B9BCC2E-1CD6-42F9-8BE2-7B95E81C5A0A}"/>
-    <hyperlink ref="A412" r:id="rId411" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F5B731D6-3F02-44FA-9209-6D63D68AEA83}"/>
-    <hyperlink ref="A413" r:id="rId412" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{24277676-41B5-4386-B4CA-4BEECC35F868}"/>
-    <hyperlink ref="A414" r:id="rId413" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{84F9FAC8-EEE0-4B69-B086-90B0760AD59E}"/>
-    <hyperlink ref="A415" r:id="rId414" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{097DD42B-EA41-44A2-BC3B-E86F79159C1A}"/>
-    <hyperlink ref="A416" r:id="rId415" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0CA5D651-1C6C-48B4-9546-49A1021F4BB2}"/>
-    <hyperlink ref="A417" r:id="rId416" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{38E16D35-C824-4E74-8642-908B5DF3BC1D}"/>
-    <hyperlink ref="A418" r:id="rId417" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0B6E4DE4-3CCD-475E-9AE6-598CD935906A}"/>
-    <hyperlink ref="A419" r:id="rId418" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F8870990-6F56-47D0-8B34-B70B7597DD5D}"/>
-    <hyperlink ref="A420" r:id="rId419" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5F4F1629-45EE-4850-83C1-CB47E1EC399B}"/>
-    <hyperlink ref="A421" r:id="rId420" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F94C6A72-3AB4-4D5E-A3FF-0A29346C68AE}"/>
-    <hyperlink ref="A422" r:id="rId421" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E9F430A3-C017-460F-96E2-7873C1005920}"/>
-    <hyperlink ref="A423" r:id="rId422" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D6DDDBCB-6102-47F6-B51A-3987D4498768}"/>
-    <hyperlink ref="A424" r:id="rId423" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DBA1F75D-211E-4B71-9DD2-56515A58EA4F}"/>
-    <hyperlink ref="A425" r:id="rId424" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{830DE6F9-65C2-4670-8C7D-B4F86F44056B}"/>
-    <hyperlink ref="A426" r:id="rId425" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{58F4001E-49EF-411E-A940-C14E87E956EA}"/>
-    <hyperlink ref="A427" r:id="rId426" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FEBA1784-2918-4063-930F-8FB17DAB275A}"/>
-    <hyperlink ref="A428" r:id="rId427" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D2723873-F57D-4588-BEA1-C8E26BC1BB2F}"/>
-    <hyperlink ref="A429" r:id="rId428" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{562C4DB9-1D82-4DDE-B583-EA46C8512E48}"/>
-    <hyperlink ref="A430" r:id="rId429" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1F9E6F2F-5652-4A83-A638-72423ADE1F5D}"/>
-    <hyperlink ref="A431" r:id="rId430" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E1F2B516-D696-48ED-B7C2-827BA09C726D}"/>
-    <hyperlink ref="A432" r:id="rId431" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1040B453-8381-43E7-8908-0F2FD8DA3C8F}"/>
-    <hyperlink ref="A433" r:id="rId432" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{46E24DCA-D8BE-47D8-B22B-9E50025A75CA}"/>
-    <hyperlink ref="A434" r:id="rId433" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{72544961-0D17-4F95-9A20-7FCAA9A6CCB6}"/>
-    <hyperlink ref="A435" r:id="rId434" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7192CD4C-3346-4F10-B3DE-FEB714ADC8AF}"/>
-    <hyperlink ref="A436" r:id="rId435" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6DE955FB-708F-40E9-96CD-C67F5E7792BD}"/>
-    <hyperlink ref="A437" r:id="rId436" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{00669319-93F6-448D-9916-6F7993DDD83F}"/>
-    <hyperlink ref="A438" r:id="rId437" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{14726070-D1DA-4F7D-BD1F-A5E9A7D4CCBF}"/>
-    <hyperlink ref="A439" r:id="rId438" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B5FCC91F-C3BC-4D79-879E-2570C061433B}"/>
-    <hyperlink ref="A440" r:id="rId439" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{97D4110D-AD11-4CBC-9582-3BC082AB96B8}"/>
-    <hyperlink ref="A441" r:id="rId440" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B3C91B62-283C-43BB-8E00-11D3FDED87C8}"/>
-    <hyperlink ref="A442" r:id="rId441" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BB7ECF57-963E-41F1-A48B-A7F0C4957F37}"/>
-    <hyperlink ref="A443" r:id="rId442" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CD697C4A-F795-469C-9E00-A37D4F5AEE75}"/>
-    <hyperlink ref="A444" r:id="rId443" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{56F172B6-C4DF-4BE4-BD37-20A0B610F574}"/>
-    <hyperlink ref="A445" r:id="rId444" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3A26704D-A656-40DC-A1BA-A510998FDDE1}"/>
-    <hyperlink ref="A446" r:id="rId445" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B06457FE-0DE9-43AF-B642-FC952E3100F6}"/>
-    <hyperlink ref="A447" r:id="rId446" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{7DA932F9-8196-4AD9-8CFD-23868A5A2DA7}"/>
-    <hyperlink ref="A448" r:id="rId447" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6F684F85-9CBE-423F-9B03-AE182CD96E64}"/>
-    <hyperlink ref="A449" r:id="rId448" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B30524AB-C5C2-4C65-A83B-FCBFD975A46D}"/>
-    <hyperlink ref="A450" r:id="rId449" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{64DCE356-A379-47CA-9F81-27EAB5A22723}"/>
-    <hyperlink ref="A451" r:id="rId450" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{37E8D0F2-0F2F-4454-858C-60FB7F70B0FC}"/>
-    <hyperlink ref="A452" r:id="rId451" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A9BB20A0-6071-4AB6-9595-D35792D27DA1}"/>
-    <hyperlink ref="A453" r:id="rId452" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CD976C1D-7875-4FDF-BD74-96237FBF9D73}"/>
-    <hyperlink ref="A454" r:id="rId453" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9E0AC22A-C6EB-49D2-A7A7-857AD79F4407}"/>
-    <hyperlink ref="A455" r:id="rId454" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4F5714E7-5BC3-4D67-BC55-E76274D2FABD}"/>
-    <hyperlink ref="A456" r:id="rId455" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC56E617-226E-479D-B024-C4BE52D1D845}"/>
-    <hyperlink ref="A457" r:id="rId456" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{35DCD327-E677-4E43-93B2-1979D448383B}"/>
-    <hyperlink ref="A458" r:id="rId457" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4E969044-79AB-45EB-978C-7AAE7CA3B51B}"/>
-    <hyperlink ref="A459" r:id="rId458" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{517278D8-4F6A-4759-B1F6-972F821B8344}"/>
-    <hyperlink ref="A460" r:id="rId459" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BAADE953-5359-4973-BC4C-0DB3C49D4175}"/>
-    <hyperlink ref="A461" r:id="rId460" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{14FF5623-4801-4E82-BBEA-4EC59DE7A790}"/>
-    <hyperlink ref="A462" r:id="rId461" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7A5344C-F487-427E-8AC0-A1090C760F8E}"/>
-    <hyperlink ref="A463" r:id="rId462" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{021163EB-2694-4305-8197-36B46055C3FC}"/>
-    <hyperlink ref="A464" r:id="rId463" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{69CAED79-CEB1-452A-833E-9DE9A722CE5E}"/>
-    <hyperlink ref="A465" r:id="rId464" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FE7AA63C-A998-48E8-A780-6941CF915D5B}"/>
-    <hyperlink ref="A466" r:id="rId465" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2F0046BE-CECF-48BD-B60D-8E4768AA3333}"/>
-    <hyperlink ref="A467" r:id="rId466" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B98E9FBE-1069-4D18-BECF-EC7F16D9ACF8}"/>
-    <hyperlink ref="A468" r:id="rId467" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{52303EF3-1795-457A-91A0-04E22BBA902D}"/>
-    <hyperlink ref="A469" r:id="rId468" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{36B2F21E-BAD3-41EC-AD04-1E251EF27F94}"/>
-    <hyperlink ref="A470" r:id="rId469" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0A91FFA6-6EA4-4EF5-9180-9F408C0AAEB8}"/>
-    <hyperlink ref="A471" r:id="rId470" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B08ECB4A-DEC0-4D46-86B2-AFD62BDCD1F9}"/>
-    <hyperlink ref="A472" r:id="rId471" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AE2B0E1A-78C8-4D34-8DF4-C60AB8A63A43}"/>
-    <hyperlink ref="A473" r:id="rId472" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{26589C69-1BCC-4187-A025-40660813E305}"/>
-    <hyperlink ref="A474" r:id="rId473" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1F62C8AE-873E-4F02-9815-194A134C0E89}"/>
-    <hyperlink ref="A475" r:id="rId474" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4D0CBEF6-E730-41CE-93EF-EFEC3F8D6258}"/>
-    <hyperlink ref="A476" r:id="rId475" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CC8D4321-DB7A-4E29-B2E0-FD0814B12F9F}"/>
-    <hyperlink ref="A477" r:id="rId476" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B90EF37A-9703-45C1-BF4C-6D110CF6A284}"/>
-    <hyperlink ref="A478" r:id="rId477" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{74B65E7D-94E6-4597-94FE-470EACEFDAE7}"/>
-    <hyperlink ref="A479" r:id="rId478" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0800ECD2-400B-470B-9324-158821DEE12A}"/>
-    <hyperlink ref="A480" r:id="rId479" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{40389EFF-47C2-449E-97B8-E038D4ECB4BB}"/>
-    <hyperlink ref="A481" r:id="rId480" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AE36523A-EB92-40F3-895C-D5BD4708AE1C}"/>
-    <hyperlink ref="A482" r:id="rId481" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AFD46240-AF93-4DCC-863E-326DDC00DC5C}"/>
-    <hyperlink ref="A483" r:id="rId482" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8FD7FA5A-8BDD-412A-AEF0-5172ECA44D1B}"/>
-    <hyperlink ref="A484" r:id="rId483" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6C6AE88B-E4CE-4EA1-8802-7B2D89635A23}"/>
-    <hyperlink ref="A485" r:id="rId484" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BF6B5F09-1047-474B-A537-B5DD8965AC62}"/>
-    <hyperlink ref="A486" r:id="rId485" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{97FD9993-8103-4509-B4BE-C112593F266E}"/>
-    <hyperlink ref="A487" r:id="rId486" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E1B5D0B9-E021-4505-B4AF-943D320F72BE}"/>
-    <hyperlink ref="A488" r:id="rId487" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{59008186-77FB-4ED6-8755-AC76843A17EC}"/>
-    <hyperlink ref="A489" r:id="rId488" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{409A821E-7628-47E0-B75A-643D711B3020}"/>
-    <hyperlink ref="A490" r:id="rId489" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{8747D87D-49C5-4F92-9AA3-32D7A6F0B449}"/>
-    <hyperlink ref="A491" r:id="rId490" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{10B9AE88-BA39-44D0-95C5-A957DBD16F61}"/>
-    <hyperlink ref="A492" r:id="rId491" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{32C20E67-988C-4A68-A9B9-64D1C9F1E0DB}"/>
-    <hyperlink ref="A493" r:id="rId492" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BA10829E-2403-4181-BBAA-CF64B0A4AF28}"/>
-    <hyperlink ref="A494" r:id="rId493" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9FDCAC14-62E0-4AA0-B456-4D7CFA42A613}"/>
-    <hyperlink ref="A495" r:id="rId494" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A0BEE613-60F4-49E7-A493-C2EF698E189B}"/>
-    <hyperlink ref="A496" r:id="rId495" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E3C41988-C813-42CF-8158-4FC014F82716}"/>
-    <hyperlink ref="A497" r:id="rId496" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{044372D0-D138-4C68-9E8C-987765E12295}"/>
-    <hyperlink ref="A498" r:id="rId497" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AAFA2D52-172F-4590-B188-14D4E02E7E33}"/>
-    <hyperlink ref="A499" r:id="rId498" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0FA477A3-7B72-4A49-B2E6-49109946FA21}"/>
-    <hyperlink ref="A500" r:id="rId499" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3D1EE9F2-1D70-483C-9733-D161DECE2B02}"/>
-    <hyperlink ref="A501" r:id="rId500" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3605A294-1D07-4C32-A9EA-88A28DCD84FA}"/>
-    <hyperlink ref="A502" r:id="rId501" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{EB72D69B-962B-4F97-B25A-4AD8C745BC3D}"/>
-    <hyperlink ref="A503" r:id="rId502" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DF8A0365-AD38-48D4-9E37-8CAB3114E5A0}"/>
-    <hyperlink ref="A504" r:id="rId503" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{DD2866E1-F05B-404F-BED4-993630250960}"/>
-    <hyperlink ref="A505" r:id="rId504" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4EC09193-13CA-4C5C-A2BC-9AD8720BF216}"/>
-    <hyperlink ref="A506" r:id="rId505" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{1166AA42-6D7B-429A-8981-AE87D6B10B6A}"/>
-    <hyperlink ref="A507" r:id="rId506" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2FF4B3D5-1C82-4869-8FAE-D487DF852A78}"/>
-    <hyperlink ref="A508" r:id="rId507" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{520FABEC-41CA-4C34-9BE1-9B199937B96E}"/>
-    <hyperlink ref="A509" r:id="rId508" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{41E0B007-FEBA-4C66-9F65-1ABE7D48A159}"/>
-    <hyperlink ref="A510" r:id="rId509" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2DD23D77-9131-460F-A2D7-5C4ED30FDCAE}"/>
-    <hyperlink ref="A511" r:id="rId510" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6F45DB20-B819-4A88-ADE8-EA20E067C9B4}"/>
-    <hyperlink ref="A512" r:id="rId511" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D90DCCFD-ED34-49CC-98EE-B5752A3B8949}"/>
-    <hyperlink ref="A513" r:id="rId512" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{524D35B9-EAC9-4A08-BDE1-3E0C66C3266B}"/>
-    <hyperlink ref="A514" r:id="rId513" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{68B548D8-D5C4-44D9-A66A-9FE7683BE5B3}"/>
-    <hyperlink ref="A515" r:id="rId514" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FBFEA84C-3A16-479A-9110-4FB1B9EAC8D2}"/>
-    <hyperlink ref="A516" r:id="rId515" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{364D70BE-E85F-4862-B9B0-E2EB2AC71898}"/>
-    <hyperlink ref="A517" r:id="rId516" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{97F38726-8CD5-46CA-80AD-2ADBB269EB56}"/>
-    <hyperlink ref="A518" r:id="rId517" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C36B1599-92B2-4709-B155-67EF7E9AD7A4}"/>
-    <hyperlink ref="A519" r:id="rId518" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F9623BC6-D850-4E86-964A-B322C7A6179F}"/>
-    <hyperlink ref="A520" r:id="rId519" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{712B2C40-B88F-44E0-8445-DC862B69015A}"/>
-    <hyperlink ref="A521" r:id="rId520" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{47D0C74A-36CA-4339-A19A-C72B1E1B8109}"/>
-    <hyperlink ref="A522" r:id="rId521" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9554E750-88CA-44D9-BA15-0773E2435C15}"/>
-    <hyperlink ref="A523" r:id="rId522" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E9115A58-436E-48C8-99EC-EAA6A232D3C9}"/>
-    <hyperlink ref="A524" r:id="rId523" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D3D584D2-E211-4028-9FB2-D56313614609}"/>
-    <hyperlink ref="A525" r:id="rId524" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{80DE0745-DBE1-4E8E-9A9D-72323F5E5C23}"/>
-    <hyperlink ref="A526" r:id="rId525" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B4DA902D-1E03-4E89-B2FF-226B1985C5F6}"/>
-    <hyperlink ref="A527" r:id="rId526" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{390316CF-730F-4A0D-962E-65796E2BEA3F}"/>
-    <hyperlink ref="A528" r:id="rId527" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CAB29913-14AC-4D73-A456-EA7BFAA2F52D}"/>
-    <hyperlink ref="A529" r:id="rId528" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9B0B7542-393D-43F9-900C-F66A34504E3E}"/>
-    <hyperlink ref="A530" r:id="rId529" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F468405C-20EC-40CB-A869-46EE9319D33C}"/>
-    <hyperlink ref="A531" r:id="rId530" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7B95592-73DD-450A-B384-4DE681F27360}"/>
-    <hyperlink ref="A532" r:id="rId531" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C080EE9C-16A0-4342-B0C1-24F5CCCCADB7}"/>
-    <hyperlink ref="A533" r:id="rId532" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FF079E7C-5CFB-4E63-97C4-424F1AFA6F36}"/>
-    <hyperlink ref="A534" r:id="rId533" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CB7C82F4-D302-4D2A-BDE2-7E468CB73C74}"/>
-    <hyperlink ref="A535" r:id="rId534" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{261D1D9A-5601-43AD-991A-821B100C9B85}"/>
-    <hyperlink ref="A536" r:id="rId535" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{05FA8D4B-7AC4-4ECB-85C6-06965C2745D2}"/>
-    <hyperlink ref="A537" r:id="rId536" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{9DC092D3-BCA6-4994-871D-ECC0D544C51D}"/>
-    <hyperlink ref="A538" r:id="rId537" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{58E8931D-1039-4092-8B22-046B8BF6AB3E}"/>
-    <hyperlink ref="A539" r:id="rId538" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{646FFABD-A3A0-4FCF-B184-4DC4B5DEBE45}"/>
-    <hyperlink ref="A540" r:id="rId539" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3829DB95-730B-498E-8972-61BD72EA0892}"/>
-    <hyperlink ref="A541" r:id="rId540" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{391E7E14-6E3C-4EF1-BC49-A9E8C7004B91}"/>
-    <hyperlink ref="A542" r:id="rId541" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{76CFB25F-2F4B-4DED-A10E-DFDF86F468CF}"/>
-    <hyperlink ref="A543" r:id="rId542" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FF8306A8-4109-4972-B99F-D0B510E5F5A5}"/>
-    <hyperlink ref="A544" r:id="rId543" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{67A334B8-6CD2-411B-A663-A6173FA39FF3}"/>
-    <hyperlink ref="A545" r:id="rId544" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D003CDD2-A6BF-4FBB-BE37-7A4E3771BCE6}"/>
-    <hyperlink ref="A546" r:id="rId545" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5F30404A-39CE-48AC-B640-CA1E43405817}"/>
-    <hyperlink ref="A547" r:id="rId546" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CF853FD6-F0EB-4333-8B26-4234DC9DA657}"/>
-    <hyperlink ref="A548" r:id="rId547" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4E5C522C-7666-46A2-82C6-F834D60CC589}"/>
-    <hyperlink ref="A549" r:id="rId548" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{97CCB1BB-7C4E-4DE0-862D-26F0FFDFE954}"/>
-    <hyperlink ref="A550" r:id="rId549" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B016EF38-8488-4569-8613-A21913E1D922}"/>
-    <hyperlink ref="A551" r:id="rId550" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{619C7C38-1C1E-4620-AA77-69FD286D135A}"/>
-    <hyperlink ref="A552" r:id="rId551" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AA557397-78BF-4BFD-9A29-F9CDAA016951}"/>
-    <hyperlink ref="A553" r:id="rId552" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C980C1B3-1DB6-4555-AC73-04BD158BFB2C}"/>
-    <hyperlink ref="A554" r:id="rId553" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4E79E90F-FDE5-476B-8DF5-A8A7AABA9DB7}"/>
-    <hyperlink ref="A555" r:id="rId554" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A5A968EB-CEA7-47E4-A783-0AD33241601D}"/>
-    <hyperlink ref="A556" r:id="rId555" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E655EDCE-BCE4-4CA5-A081-525D72031CCE}"/>
-    <hyperlink ref="A557" r:id="rId556" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4C2CCDE6-9DA8-46FF-8506-3C8F8859F7D4}"/>
-    <hyperlink ref="A558" r:id="rId557" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F9E8B45B-4732-44B4-B513-FECAA6FC6AFD}"/>
-    <hyperlink ref="A559" r:id="rId558" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A81C8D84-5AAF-46FC-911A-8E19D2F45FC6}"/>
-    <hyperlink ref="A560" r:id="rId559" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CB3CECBE-648B-43F9-A8D7-DB8C9D803847}"/>
-    <hyperlink ref="A561" r:id="rId560" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C49ACAE5-D96E-436A-A843-94529470C618}"/>
-    <hyperlink ref="A562" r:id="rId561" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{0138B0E5-1A06-4AF6-A59F-C23BC8F0EC65}"/>
-    <hyperlink ref="A563" r:id="rId562" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C4BE1D90-0624-4DF6-9CE5-7782EC0F5778}"/>
-    <hyperlink ref="A564" r:id="rId563" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D28E9294-2E89-4C2D-97BE-0AECE2621618}"/>
-    <hyperlink ref="A565" r:id="rId564" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{11C7F563-5389-4E74-A654-1E297B1DE498}"/>
-    <hyperlink ref="A566" r:id="rId565" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{D81949D2-3EA4-45F9-9FCB-6FE484F8D239}"/>
-    <hyperlink ref="A567" r:id="rId566" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5BF75F0F-5BA5-4524-BA83-A507323F6C27}"/>
-    <hyperlink ref="A568" r:id="rId567" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FEA7B44C-249C-4B9E-B218-9E083DB7D007}"/>
-    <hyperlink ref="A569" r:id="rId568" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2F2CC2EE-C7B2-4053-A784-21437D5F450F}"/>
-    <hyperlink ref="A570" r:id="rId569" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F4622731-BB41-4BC1-8025-38ACB709F934}"/>
-    <hyperlink ref="A571" r:id="rId570" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E612D0BF-9D70-46DF-BD32-E786727BC9A8}"/>
-    <hyperlink ref="A572" r:id="rId571" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AED86211-4AF8-474E-9127-E33A05D09677}"/>
-    <hyperlink ref="A573" r:id="rId572" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{057F4B29-F8F6-4F27-A288-25D9F45A048F}"/>
-    <hyperlink ref="A574" r:id="rId573" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CA10F47A-D511-4007-895C-7C33521CAC89}"/>
-    <hyperlink ref="A575" r:id="rId574" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{202B9EEE-F095-4E8D-9749-CFAE46A94FB5}"/>
-    <hyperlink ref="A576" r:id="rId575" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{04DEFD73-454A-4E3F-BDD2-C7B7C0552F14}"/>
-    <hyperlink ref="A577" r:id="rId576" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FDF34C3C-0D4F-42C7-A918-9AAB232E9FE6}"/>
-    <hyperlink ref="A578" r:id="rId577" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3E3A7F39-A39C-4D1B-804E-BDC5AF9EC57C}"/>
-    <hyperlink ref="A579" r:id="rId578" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{098BD14F-BCC5-40E1-8B33-88E65565C927}"/>
-    <hyperlink ref="A580" r:id="rId579" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2687EAE6-E40E-406D-B2DE-497AE440E43E}"/>
-    <hyperlink ref="A581" r:id="rId580" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4D7F6316-6CBE-45E7-BDD0-BCAC7447CAAF}"/>
-    <hyperlink ref="A582" r:id="rId581" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{51FBFD6E-1C4C-4E51-8BAA-0F4969E0D5F4}"/>
-    <hyperlink ref="A583" r:id="rId582" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC71D8E9-151D-4BCC-AFE0-BB6C700CDEBD}"/>
-    <hyperlink ref="A584" r:id="rId583" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{5467E7BB-4C3B-4DB7-BC64-9BE7E0A006BA}"/>
-    <hyperlink ref="A585" r:id="rId584" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{2E389D93-4CA1-4A60-8F0D-E6D0F5EAB3A9}"/>
-    <hyperlink ref="A586" r:id="rId585" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FEDAFE5F-D6A2-4CF6-8DD8-513BBD716788}"/>
-    <hyperlink ref="A587" r:id="rId586" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FC9C08C0-1C14-4370-9193-3000E2AD1293}"/>
-    <hyperlink ref="A588" r:id="rId587" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{184773A7-A39B-49EA-B835-238D14266B2D}"/>
-    <hyperlink ref="A589" r:id="rId588" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A2FC74FC-E0E8-4582-B4CC-B4D0F7A64ACC}"/>
-    <hyperlink ref="A590" r:id="rId589" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6B0BCC74-52D2-4458-8B5D-BE8991560266}"/>
-    <hyperlink ref="A591" r:id="rId590" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4E3F330D-5922-449D-B10A-2A265B4BF98F}"/>
-    <hyperlink ref="A592" r:id="rId591" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CCF8FEA8-9A16-4C4B-B41C-EDF147579EDB}"/>
-    <hyperlink ref="A593" r:id="rId592" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C5884DF8-ED9F-4494-A60E-B0A6BC1A726F}"/>
-    <hyperlink ref="A594" r:id="rId593" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{F891C681-58CE-41DE-88E5-D467D9CE2AFD}"/>
-    <hyperlink ref="A595" r:id="rId594" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{A16F9259-27DB-44F5-BF2B-86427BE36598}"/>
-    <hyperlink ref="A596" r:id="rId595" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{51B900D4-A6E9-4B62-930F-5604A6A83393}"/>
-    <hyperlink ref="A597" r:id="rId596" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{23799876-1869-4290-B28B-F545A88BDDEA}"/>
-    <hyperlink ref="A598" r:id="rId597" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{6036B261-BB12-40C6-8EED-BE8DAF3E70D7}"/>
-    <hyperlink ref="A599" r:id="rId598" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{AD0A0BF7-F59C-495B-ADE2-309D359DABE0}"/>
-    <hyperlink ref="A600" r:id="rId599" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BB8FE6E0-1173-4D77-AE97-BF065772A3B9}"/>
-    <hyperlink ref="A601" r:id="rId600" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{C15A06FA-C9F1-4A46-B957-D98068542769}"/>
-    <hyperlink ref="A602" r:id="rId601" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B1806120-2902-4073-9DB7-3E4084198D12}"/>
-    <hyperlink ref="A603" r:id="rId602" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BC821F02-5924-43FE-8510-A1C556872C76}"/>
-    <hyperlink ref="A604" r:id="rId603" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{969B823C-BD06-4B34-B44E-8EC3788995B0}"/>
-    <hyperlink ref="A605" r:id="rId604" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{4E6C0DCD-79C0-4F64-934A-8DCFB14E7B04}"/>
-    <hyperlink ref="A606" r:id="rId605" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{3B977EF5-2D3A-437D-A8E7-633EA274CCAC}"/>
-    <hyperlink ref="A607" r:id="rId606" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7CB8A27-0355-4BBF-AA3E-950975685A5A}"/>
-    <hyperlink ref="A608" r:id="rId607" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{FA302C59-9337-4D5E-AB87-7114C1A18B13}"/>
-    <hyperlink ref="A609" r:id="rId608" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{24996BDD-D28A-4BE7-8309-2CD5E33F8D58}"/>
-    <hyperlink ref="A610" r:id="rId609" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{484FE001-96D3-4606-84BC-FCF919555083}"/>
-    <hyperlink ref="A611" r:id="rId610" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E7B669F6-9350-4D8E-858B-1D63AAF25040}"/>
-    <hyperlink ref="A612" r:id="rId611" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{CCADAA7B-3586-4AFD-B71F-FDCC6242F8CD}"/>
-    <hyperlink ref="A613" r:id="rId612" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{047C7ED0-4A99-445F-8EB4-1C0F06D7B36F}"/>
-    <hyperlink ref="A614" r:id="rId613" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{B6E1E8FE-7930-4F31-B3AB-9A09F43E2741}"/>
-    <hyperlink ref="A615" r:id="rId614" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BFAEB86D-820B-49C1-A17F-19A7AADCCA52}"/>
-    <hyperlink ref="A616" r:id="rId615" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{E34EB83B-3206-4424-842D-1392B66A18BD}"/>
-    <hyperlink ref="A617" r:id="rId616" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{465E3119-CFFD-4F1E-AA3B-6B15A8CF3DD2}"/>
-    <hyperlink ref="A618" r:id="rId617" tooltip="Click to expand or collapse" display="https://moodle.bocetosoft.com/admin/webservice/documentation.php" xr:uid="{BE33AD11-87F1-4529-B6F7-D72C2BD3431A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>